--- a/data/param_tuning/Dataset6/cnn_num.xlsx
+++ b/data/param_tuning/Dataset6/cnn_num.xlsx
@@ -456,22 +456,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.7897</t>
+          <t>0.7985</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.5322</t>
+          <t>0.541</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.4882</t>
+          <t>0.4736</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.4757</t>
+          <t>0.4766</t>
         </is>
       </c>
     </row>
@@ -483,22 +483,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.8214</t>
+          <t>0.8081</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.6033</t>
+          <t>0.6042</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.5408</t>
+          <t>0.5443</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.5467</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.8133</t>
+          <t>0.8066</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.6319</t>
+          <t>0.5791</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.5627</t>
+          <t>0.5117</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.5667</t>
+          <t>0.5169</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.8162</t>
+          <t>0.8089</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.543</t>
+          <t>0.537</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.4988</t>
+          <t>0.513</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.4956</t>
+          <t>0.502</t>
         </is>
       </c>
     </row>
@@ -564,22 +564,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.8081</t>
+          <t>0.8229</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.5837</t>
+          <t>0.5925</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.5372</t>
+          <t>0.5354</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.5186</t>
+          <t>0.523</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.8015</t>
+          <t>0.8229</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.5408</t>
+          <t>0.6296</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.5461</t>
+          <t>0.6001</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.5211</t>
+          <t>0.594</t>
         </is>
       </c>
     </row>
@@ -618,22 +618,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.8074</t>
+          <t>0.8111</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.5327</t>
+          <t>0.623</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.5136</t>
+          <t>0.545</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.4933</t>
+          <t>0.5481</t>
         </is>
       </c>
     </row>
@@ -645,22 +645,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.803</t>
+          <t>0.8273</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.5841</t>
+          <t>0.5873</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.509</t>
+          <t>0.5691</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.5103</t>
+          <t>0.5656</t>
         </is>
       </c>
     </row>
